--- a/tour_occ_ninat.xlsx
+++ b/tour_occ_ninat.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60aeb57e2aaf6f0b/ΜΑΘΗΜΑΤΑ/ΔΙΔΑΚΤΟΡΙΚΟ/ΜΑΘΗΜΑΤΑ/DECENTRALIZED SYSTEMS FOR BIG DATA MANAGEMENT/PROJECT/2021/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -26,189 +22,207 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
-    <t>Nights spent at tourist accommodation establishments [tour_occ_ninat]</t>
-  </si>
-  <si>
-    <t>Source of data</t>
-  </si>
-  <si>
-    <t>Eurostat</t>
-  </si>
-  <si>
-    <t>C_RESID</t>
-  </si>
-  <si>
-    <t>Foreign country</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>NACE_R2</t>
-  </si>
-  <si>
-    <t>Hotels; holiday and other short-stay accommodation; camping grounds, recreational vehicle parks and trailer parks</t>
-  </si>
-  <si>
-    <t>GEO/TIME</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Germany (until 1990 former territory of the FRG)</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Former Yugoslav Republic of Macedonia, the</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
+    <t xml:space="preserve">Nights spent at tourist accommodation establishments [tour_occ_ninat]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurostat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_RESID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACE_R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotels; holiday and other short-stay accommodation; camping grounds, recreational vehicle parks and trailer parks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO/TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former Yugoslav Republic of Macedonia, the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -239,236 +253,196 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -476,33 +450,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -515,13 +480,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -531,15 +490,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -547,7 +504,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -555,326 +511,324 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="1" width="12.45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="4" t="n">
         <v>16039090</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>16271311</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>16360702</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>15451017</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="n">
         <v>16169676</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="4" t="n">
         <v>16723867</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4" t="n">
         <v>16432646</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="4" t="n">
         <v>16511721</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="4" t="n">
         <v>17068872</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="4" t="n">
         <v>18852087</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="4" t="n">
         <v>11944694</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>12006786</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>11791454</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>9460922</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="n">
         <v>10547112</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="4" t="n">
         <v>12426723</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4" t="n">
         <v>13451440</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="4" t="n">
         <v>14370426</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="4" t="n">
         <v>14077798</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="4" t="n">
         <v>13352281</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="4" t="n">
         <v>20090348</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>20610186</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>19987022</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>17746893</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="n">
         <v>18365947</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4" t="n">
         <v>19424839</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4" t="n">
         <v>21793985</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="4" t="n">
         <v>22144896</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="4" t="n">
         <v>22110112</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="4" t="n">
         <v>23286515</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4" t="n">
         <v>9453026</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>9327579</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>8918197</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>8299403</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="n">
         <v>8981992</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="4" t="n">
         <v>9491137</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4" t="n">
         <v>9608124</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="4" t="n">
         <v>9914273</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="4" t="n">
         <v>10608119</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="4" t="n">
         <v>11171416</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="4" t="n">
         <v>52947373</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>54485379</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>56239679</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>54096574</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4" t="n">
         <v>59658760</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="4" t="n">
         <v>63081467</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="4" t="n">
         <v>68161503</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="4" t="n">
         <v>71191942</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="4" t="n">
         <v>74805253</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="4" t="n">
         <v>78827773</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="4" t="n">
         <v>3020367</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="n">
         <v>2915456</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>2932662</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>2740696</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="n">
         <v>3203721</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="4" t="n">
         <v>3748865</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="4" t="n">
         <v>3823039</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="4" t="n">
         <v>3909326</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="4" t="n">
         <v>3919299</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="4" t="n">
         <v>3770207</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="4" t="n">
         <v>21652000</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -892,742 +846,742 @@
       <c r="G16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="4" t="n">
         <v>11839245</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="4" t="n">
         <v>10871806</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="4" t="n">
         <v>11276424</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="4" t="n">
         <v>13462348</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="4" t="n">
         <v>43055381</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4" t="n">
         <v>48081473</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="n">
         <v>47973949</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="4" t="n">
         <v>57413304</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="4" t="n">
         <v>59184397</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="4" t="n">
         <v>65514230</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="4" t="n">
         <v>61054383</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="4" t="n">
         <v>68992640</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="4" t="n">
         <v>74675156</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="4" t="n">
         <v>78254524</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="4" t="n">
         <v>224518083</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="n">
         <v>225450241</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="4" t="n">
         <v>223756216</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="4" t="n">
         <v>200551728</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="4" t="n">
         <v>213349649</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="4" t="n">
         <v>239369167</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="4" t="n">
         <v>243389006</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="4" t="n">
         <v>252447766</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="4" t="n">
         <v>259635794</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="4" t="n">
         <v>269418103</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="4" t="n">
         <v>105865432</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4" t="n">
         <v>108567043</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="4" t="n">
         <v>106993811</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="4" t="n">
         <v>98705212</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="4" t="n">
         <v>120390105</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="4" t="n">
         <v>123227704</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="4" t="n">
         <v>125038453</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="4" t="n">
         <v>132251136</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="4" t="n">
         <v>130908700</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="4" t="n">
         <v>130464997</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="4" t="n">
         <v>32858014</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="4" t="n">
         <v>33701925</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="4" t="n">
         <v>33902735</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="4" t="n">
         <v>33357844</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="4" t="n">
         <v>33234882</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="4" t="n">
         <v>35389002</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="4" t="n">
         <v>57079967</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="4" t="n">
         <v>59378896</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="4" t="n">
         <v>61072661</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="4" t="n">
         <v>65683010</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="4" t="n">
         <v>156861341</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="n">
         <v>163465680</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="4" t="n">
         <v>161797434</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="4" t="n">
         <v>159493866</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="4" t="n">
         <v>165202498</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="4" t="n">
         <v>176474062</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="4" t="n">
         <v>180594988</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="4" t="n">
         <v>184793382</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="4" t="n">
         <v>186792507</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="4" t="n">
         <v>192607930</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="4" t="n">
         <v>13310257</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="4" t="n">
         <v>13197004</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="4" t="n">
         <v>13208954</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="4" t="n">
         <v>11666663</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="4" t="n">
         <v>12448158</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="4" t="n">
         <v>13112596</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="4" t="n">
         <v>13488127</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="4" t="n">
         <v>13152589</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="4" t="n">
         <v>12884399</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="4" t="n">
         <v>12550320</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="4" t="n">
         <v>1872393</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="4" t="n">
         <v>1935984</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="4" t="n">
         <v>2115618</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="4" t="n">
         <v>1699562</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="4" t="n">
         <v>1912336</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="4" t="n">
         <v>2257021</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="4" t="n">
         <v>2429093</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="4" t="n">
         <v>2639434</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="4" t="n">
         <v>2875934</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="4" t="n">
         <v>2873885</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="4" t="n">
         <v>1514197</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="n">
         <v>1609998</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="4" t="n">
         <v>1626829</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="4" t="n">
         <v>1395899</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="4" t="n">
         <v>1571325</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="4" t="n">
         <v>1883003</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="4" t="n">
         <v>2680048</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="4" t="n">
         <v>2906201</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="4" t="n">
         <v>3033826</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="4" t="n">
         <v>3010727</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="4" t="n">
         <v>2399913</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="4" t="n">
         <v>2328688</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="4" t="n">
         <v>2249545</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="4" t="n">
         <v>2075831</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="4" t="n">
         <v>1717130</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="4" t="n">
         <v>2057883</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="4" t="n">
         <v>2298068</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="4" t="n">
         <v>2313124</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="4" t="n">
         <v>2513585</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="4" t="n">
         <v>2655733</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="4" t="n">
         <v>10045891</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="4" t="n">
         <v>10170808</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="4" t="n">
         <v>10009531</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="4" t="n">
         <v>9220148</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="4" t="n">
         <v>9358373</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="4" t="n">
         <v>9920339</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="4" t="n">
         <v>11392183</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="4" t="n">
         <v>11982883</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="4" t="n">
         <v>12351330</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="4" t="n">
         <v>12962395</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="4" t="n">
         <v>7094031</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="4" t="n">
         <v>7749831</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="4" t="n">
         <v>7581137</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="4" t="n">
         <v>6550794</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="4" t="n">
         <v>7208295</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="4" t="n">
         <v>7361449</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="4" t="n">
         <v>7498421</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="4" t="n">
         <v>8172407</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="4" t="n">
         <v>8428215</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="4" t="n">
         <v>8542055</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="4" t="n">
         <v>26886500</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="4" t="n">
         <v>27952200</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="4" t="n">
         <v>25267600</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="4" t="n">
         <v>25013700</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="4" t="n">
         <v>26799800</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="4" t="n">
         <v>27739000</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="4" t="n">
         <v>27845942</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="4" t="n">
         <v>31770508</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="4" t="n">
         <v>34423552</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="4" t="n">
         <v>37297588</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="4" t="n">
         <v>70017089</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="4" t="n">
         <v>71518637</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="4" t="n">
         <v>74730956</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="4" t="n">
         <v>72224605</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="4" t="n">
         <v>72585976</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="4" t="n">
         <v>73647325</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="4" t="n">
         <v>77158431</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="4" t="n">
         <v>78433546</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="4" t="n">
         <v>78099096</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="4" t="n">
         <v>80304956</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="4" t="n">
         <v>10555119</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="4" t="n">
         <v>10918100</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="4" t="n">
         <v>10173237</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="4" t="n">
         <v>9609447</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="4" t="n">
         <v>10064628</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="4" t="n">
         <v>10620264</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="4" t="n">
         <v>11876599</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="4" t="n">
         <v>12471268</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="4" t="n">
         <v>12992241</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="4" t="n">
         <v>13757657</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="4" t="n">
         <v>26842277</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="4" t="n">
         <v>28669799</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="4" t="n">
         <v>28126716</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="4" t="n">
         <v>25024678</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="4" t="n">
         <v>25386084</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="4" t="n">
         <v>27860103</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="4" t="n">
         <v>29033970</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="4" t="n">
         <v>32078773</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="4" t="n">
         <v>35630345</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="4" t="n">
         <v>38897329</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="4" t="n">
         <v>3242105</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="4" t="n">
         <v>3586439</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="4" t="n">
         <v>3359244</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="4" t="n">
         <v>2667666</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="4" t="n">
         <v>2766581</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="4" t="n">
         <v>3066882</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="4" t="n">
         <v>3291504</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="4" t="n">
         <v>3471152</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="4" t="n">
         <v>3762465</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="4" t="n">
         <v>4460017</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="4" t="n">
         <v>4332049</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="4" t="n">
         <v>4707220</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="4" t="n">
         <v>5085308</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="4" t="n">
         <v>4656825</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="4" t="n">
         <v>4680456</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="4" t="n">
         <v>5106452</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="4" t="n">
         <v>5702306</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="4" t="n">
         <v>5887862</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="4" t="n">
         <v>6004623</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="4" t="n">
         <v>6529086</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="4" t="n">
         <v>5058147</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="4" t="n">
         <v>5115168</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="4" t="n">
         <v>5144831</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="4" t="n">
         <v>3707327</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="4" t="n">
         <v>3749566</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="4" t="n">
         <v>3990300</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="4" t="n">
         <v>4039410</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="4" t="n">
         <v>4277598</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="4" t="n">
         <v>3852147</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="4" t="n">
         <v>4384800</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="4" t="n">
         <v>5003750</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="4" t="n">
         <v>5328215</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="4" t="n">
         <v>5502554</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="4" t="n">
         <v>4890006</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="4" t="n">
         <v>5005068</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="4" t="n">
         <v>5507468</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="4" t="n">
         <v>5802959</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="4" t="n">
         <v>5860447</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="4" t="n">
         <v>5710702</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="4" t="n">
         <v>5510350</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="4" t="n">
         <v>10942968</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="4" t="n">
         <v>11200359</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="4" t="n">
         <v>10920106</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="4" t="n">
         <v>11317502</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="4" t="n">
         <v>11184995</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="4" t="n">
         <v>11344435</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="4" t="n">
         <v>11299455</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="4" t="n">
         <v>11442690</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="4" t="n">
         <v>12260712</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="4" t="n">
         <v>13612924</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="4" t="n">
         <v>90740612</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="4" t="n">
         <v>84690331</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="4" t="n">
         <v>80393221</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="4" t="n">
         <v>79920519</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="4" t="n">
         <v>84610527</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="4" t="n">
         <v>87993917</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="4" t="n">
         <v>105455528</v>
       </c>
       <c r="I37" s="5" t="s">
@@ -1640,113 +1594,113 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="4" t="n">
         <v>1687744</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="4" t="n">
         <v>1838330</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="4" t="n">
         <v>1894457</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="4" t="n">
         <v>2028069</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="4" t="n">
         <v>2089527</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="4" t="n">
         <v>2384477</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="4" t="n">
         <v>2873790</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="4" t="n">
         <v>3366252</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="4" t="n">
         <v>4404834</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="4" t="n">
         <v>5605634</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="4" t="n">
         <v>155171</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="4" t="n">
         <v>167748</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="4" t="n">
         <v>171425</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="4" t="n">
         <v>158414</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="4" t="n">
         <v>150336</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="4" t="n">
         <v>148955</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="4" t="n">
         <v>136276</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="4" t="n">
         <v>132491</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="4" t="n">
         <v>130202</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="4" t="n">
         <v>110465</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="4" t="n">
         <v>7921169</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="4" t="n">
         <v>8305287</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="4" t="n">
         <v>8119045</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="4" t="n">
         <v>7500431</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="4" t="n">
         <v>7881525</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="4" t="n">
         <v>7844241</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="4" t="n">
         <v>7940468</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="4" t="n">
         <v>7693241</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="4" t="n">
         <v>8451333</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="4" t="n">
         <v>8851422</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -1780,8 +1734,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1799,10 +1753,10 @@
       <c r="F42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="4" t="n">
         <v>2743414</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="4" t="n">
         <v>8143007</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -1811,12 +1765,12 @@
       <c r="J42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="4" t="n">
         <v>10307371</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1825,33 +1779,33 @@
       <c r="C43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="4" t="n">
         <v>579549</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="4" t="n">
         <v>575117</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="4" t="n">
         <v>548640</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="4" t="n">
         <v>740532</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="4" t="n">
         <v>794564</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="4" t="n">
         <v>864125</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="4" t="n">
         <v>900148</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="4" t="n">
         <v>1020943</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1872,21 +1826,21 @@
       <c r="G44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="4" t="n">
         <v>1766627</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="4" t="n">
         <v>1879208</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="4" t="n">
         <v>2074680</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="4" t="n">
         <v>2402065</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -1910,30 +1864,36 @@
       <c r="H45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="4" t="n">
         <v>89594261</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="4" t="n">
         <v>97581075</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="4" t="n">
         <v>96400316</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>